--- a/data/fixtures.xlsx
+++ b/data/fixtures.xlsx
@@ -2334,16 +2334,16 @@
         <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2357,16 +2357,16 @@
         <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2380,16 +2380,16 @@
         <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2400,19 +2400,19 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2420,22 +2420,22 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2449,13 +2449,13 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -2633,16 +2633,16 @@
         <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2656,10 +2656,10 @@
         <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -2679,16 +2679,16 @@
         <v>70</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:9">

--- a/data/fixtures.xlsx
+++ b/data/fixtures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="106">
   <si>
     <t>Gameweek</t>
   </si>
@@ -115,15 +115,36 @@
     <t>2024-11-02</t>
   </si>
   <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
     <t>2024-11-09</t>
   </si>
   <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
     <t>2024-11-23</t>
   </si>
   <si>
+    <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
     <t>2024-11-30</t>
   </si>
   <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
     <t>2024-12-03</t>
   </si>
   <si>
@@ -235,10 +256,19 @@
     <t>15:00:00</t>
   </si>
   <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
     <t>19:45:00</t>
-  </si>
-  <si>
-    <t>20:00:00</t>
   </si>
   <si>
     <t>18:45:00</t>
@@ -702,16 +732,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -731,16 +761,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -760,16 +790,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -789,16 +819,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -818,16 +848,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -847,16 +877,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -876,16 +906,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -905,16 +935,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -934,16 +964,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -963,16 +993,16 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -992,16 +1022,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1021,16 +1051,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1050,16 +1080,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1079,16 +1109,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1108,16 +1138,16 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1137,16 +1167,16 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1166,16 +1196,16 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
         <v>92</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1195,16 +1225,16 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1224,16 +1254,16 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1253,16 +1283,16 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1282,16 +1312,16 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1311,16 +1341,16 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1340,16 +1370,16 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1369,16 +1399,16 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1398,16 +1428,16 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1427,16 +1457,16 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1456,16 +1486,16 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1485,16 +1515,16 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1514,16 +1544,16 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1543,16 +1573,16 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1572,13 +1602,19 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>96</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -1595,13 +1631,19 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
         <v>89</v>
       </c>
-      <c r="F33" t="s">
-        <v>79</v>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1618,13 +1660,19 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1641,13 +1689,19 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>97</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1664,13 +1718,19 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1687,13 +1747,19 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1710,13 +1776,19 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1733,13 +1805,19 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -1756,13 +1834,19 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1779,13 +1863,19 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -1802,13 +1892,13 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -1825,13 +1915,13 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -1848,13 +1938,13 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -1871,13 +1961,13 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1894,13 +1984,13 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1917,13 +2007,13 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -1940,13 +2030,13 @@
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>85</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -1963,13 +2053,13 @@
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -1986,13 +2076,13 @@
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2009,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -2032,13 +2122,13 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -2055,13 +2145,13 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2078,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2101,13 +2191,13 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2124,13 +2214,13 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -2147,13 +2237,13 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -2170,13 +2260,13 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -2193,13 +2283,13 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -2216,13 +2306,13 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H60">
         <v>3</v>
@@ -2239,13 +2329,13 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -2262,13 +2352,13 @@
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -2285,13 +2375,13 @@
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -2308,13 +2398,13 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -2331,13 +2421,13 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2354,13 +2444,13 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -2377,13 +2467,13 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -2400,13 +2490,13 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -2423,13 +2513,13 @@
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -2446,13 +2536,13 @@
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -2469,13 +2559,13 @@
         <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -2492,13 +2582,13 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -2515,13 +2605,13 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -2538,13 +2628,13 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -2561,13 +2651,13 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -2584,13 +2674,13 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -2607,13 +2697,13 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -2630,13 +2720,13 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -2653,13 +2743,13 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -2676,13 +2766,13 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F80" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -2699,13 +2789,13 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -2722,13 +2812,13 @@
         <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -2745,13 +2835,13 @@
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -2768,13 +2858,13 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -2791,13 +2881,13 @@
         <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -2814,13 +2904,13 @@
         <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D86" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -2837,13 +2927,13 @@
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -2860,13 +2950,13 @@
         <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -2883,13 +2973,13 @@
         <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F89" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H89">
         <v>3</v>
@@ -2906,13 +2996,13 @@
         <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F90" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -2929,13 +3019,13 @@
         <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -2952,19 +3042,19 @@
         <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F92" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H92">
         <v>5</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2975,19 +3065,19 @@
         <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F93" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2998,13 +3088,13 @@
         <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D94" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -3021,13 +3111,13 @@
         <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -3044,19 +3134,19 @@
         <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3067,19 +3157,19 @@
         <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3090,13 +3180,13 @@
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -3110,22 +3200,22 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F99" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3133,22 +3223,22 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3156,22 +3246,22 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F101" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3179,16 +3269,16 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D102" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F102" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -3202,22 +3292,22 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C103" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D103" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3225,22 +3315,22 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D104" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F104" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3248,22 +3338,22 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D105" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3271,22 +3361,22 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F106" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3294,22 +3384,22 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D107" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3317,22 +3407,22 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D108" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3340,22 +3430,22 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D109" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F109" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3363,22 +3453,22 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D110" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3386,22 +3476,22 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D111" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F111" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3409,22 +3499,22 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F112" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3432,22 +3522,22 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D113" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F113" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H113">
         <v>2</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3455,22 +3545,22 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D114" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F114" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3478,13 +3568,13 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D115" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F115" t="s">
         <v>91</v>
@@ -3493,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3501,16 +3591,16 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F116" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -3524,22 +3614,22 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D117" t="s">
+        <v>88</v>
+      </c>
+      <c r="F117" t="s">
         <v>86</v>
       </c>
-      <c r="F117" t="s">
-        <v>89</v>
-      </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3547,22 +3637,22 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D118" t="s">
+        <v>95</v>
+      </c>
+      <c r="F118" t="s">
         <v>94</v>
       </c>
-      <c r="F118" t="s">
-        <v>88</v>
-      </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3570,22 +3660,22 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F119" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3593,22 +3683,22 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D120" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F120" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3616,22 +3706,22 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D121" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="F121" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3639,16 +3729,16 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D122" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F122" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -3662,16 +3752,16 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F123" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -3685,22 +3775,22 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D124" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
       <c r="I124">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -3708,22 +3798,22 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F125" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -3731,22 +3821,22 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F126" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -3754,22 +3844,22 @@
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D127" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -3777,22 +3867,22 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D128" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F128" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -3800,22 +3890,22 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F129" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H129">
         <v>2</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -3823,22 +3913,22 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D130" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F130" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -3846,22 +3936,22 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -3869,16 +3959,16 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D132" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F132" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -3892,16 +3982,16 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D133" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F133" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -3915,16 +4005,16 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D134" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F134" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -3938,16 +4028,16 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D135" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F135" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -3961,16 +4051,16 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D136" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F136" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -3984,16 +4074,16 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F137" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -4007,16 +4097,16 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D138" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F138" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -4030,16 +4120,16 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C139" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D139" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F139" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -4053,16 +4143,16 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D140" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F140" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H140">
         <v>4</v>
@@ -4076,16 +4166,16 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C141" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D141" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -4099,16 +4189,16 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C142" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F142" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -4122,16 +4212,16 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D143" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F143" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -4145,16 +4235,16 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D144" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F144" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H144">
         <v>5</v>
@@ -4168,16 +4258,16 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D145" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F145" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -4191,16 +4281,16 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D146" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F146" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H146">
         <v>5</v>
@@ -4214,16 +4304,16 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F147" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -4237,16 +4327,16 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C148" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D148" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F148" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -4260,16 +4350,16 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D149" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F149" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -4283,16 +4373,16 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D150" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F150" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -4306,16 +4396,16 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D151" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F151" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -4329,16 +4419,16 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C152" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D152" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F152" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -4352,16 +4442,16 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D153" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F153" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -4375,16 +4465,16 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C154" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F154" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -4398,16 +4488,16 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C155" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D155" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F155" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -4421,16 +4511,16 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C156" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F156" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -4444,16 +4534,16 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D157" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F157" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -4467,16 +4557,16 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C158" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D158" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F158" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -4490,16 +4580,16 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C159" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D159" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F159" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -4513,16 +4603,16 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D160" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F160" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -4536,16 +4626,16 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C161" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F161" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -4559,16 +4649,16 @@
         <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D162" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F162" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H162">
         <v>5</v>
@@ -4582,16 +4672,16 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C163" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D163" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F163" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -4605,16 +4695,16 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C164" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D164" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F164" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H164">
         <v>5</v>
@@ -4628,16 +4718,16 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C165" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D165" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F165" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H165">
         <v>3</v>
@@ -4651,16 +4741,16 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C166" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D166" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F166" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -4674,16 +4764,16 @@
         <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C167" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D167" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F167" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -4697,16 +4787,16 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C168" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D168" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F168" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -4720,16 +4810,16 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C169" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D169" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F169" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -4743,16 +4833,16 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C170" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D170" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F170" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H170">
         <v>4</v>
@@ -4766,16 +4856,16 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C171" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D171" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F171" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -4789,16 +4879,16 @@
         <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D172" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F172" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -4812,16 +4902,16 @@
         <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D173" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F173" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -4835,16 +4925,16 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D174" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F174" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -4858,16 +4948,16 @@
         <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C175" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D175" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F175" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -4881,16 +4971,16 @@
         <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C176" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D176" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F176" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -4904,16 +4994,16 @@
         <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C177" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D177" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F177" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -4927,16 +5017,16 @@
         <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C178" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D178" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F178" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H178">
         <v>3</v>
@@ -4950,16 +5040,16 @@
         <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C179" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D179" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F179" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H179">
         <v>3</v>
@@ -4973,16 +5063,16 @@
         <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C180" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D180" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F180" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -4996,16 +5086,16 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C181" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D181" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F181" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H181">
         <v>3</v>
@@ -5019,16 +5109,16 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C182" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D182" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F182" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H182">
         <v>2</v>
@@ -5042,16 +5132,16 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C183" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D183" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F183" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H183">
         <v>5</v>
@@ -5065,16 +5155,16 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C184" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D184" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F184" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -5088,16 +5178,16 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C185" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F185" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -5111,16 +5201,16 @@
         <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C186" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D186" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F186" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -5134,16 +5224,16 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C187" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D187" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F187" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H187">
         <v>3</v>
@@ -5157,16 +5247,16 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C188" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D188" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F188" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H188">
         <v>5</v>
@@ -5180,16 +5270,16 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C189" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D189" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F189" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H189">
         <v>3</v>
@@ -5203,16 +5293,16 @@
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C190" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D190" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F190" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -5226,16 +5316,16 @@
         <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C191" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D191" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F191" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H191">
         <v>4</v>
@@ -5249,16 +5339,16 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C192" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D192" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F192" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -5272,16 +5362,16 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C193" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D193" t="s">
+        <v>101</v>
+      </c>
+      <c r="F193" t="s">
         <v>91</v>
-      </c>
-      <c r="F193" t="s">
-        <v>81</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -5295,16 +5385,16 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C194" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D194" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F194" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H194">
         <v>5</v>
@@ -5318,16 +5408,16 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C195" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D195" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F195" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H195">
         <v>3</v>
@@ -5341,16 +5431,16 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C196" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D196" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F196" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -5364,16 +5454,16 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C197" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D197" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F197" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -5387,16 +5477,16 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C198" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D198" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F198" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H198">
         <v>2</v>
@@ -5410,16 +5500,16 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C199" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D199" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F199" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -5433,16 +5523,16 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C200" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D200" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F200" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H200">
         <v>3</v>
@@ -5456,16 +5546,16 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C201" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D201" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F201" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -5479,16 +5569,16 @@
         <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C202" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D202" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F202" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -5502,16 +5592,16 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C203" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D203" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F203" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H203">
         <v>5</v>
@@ -5525,16 +5615,16 @@
         <v>21</v>
       </c>
       <c r="B204" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C204" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D204" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F204" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H204">
         <v>3</v>
@@ -5548,16 +5638,16 @@
         <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C205" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D205" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F205" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H205">
         <v>2</v>
@@ -5571,16 +5661,16 @@
         <v>21</v>
       </c>
       <c r="B206" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C206" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D206" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F206" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -5594,16 +5684,16 @@
         <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C207" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D207" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F207" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -5617,16 +5707,16 @@
         <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C208" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D208" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F208" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H208">
         <v>2</v>
@@ -5640,16 +5730,16 @@
         <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C209" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D209" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F209" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H209">
         <v>2</v>
@@ -5663,16 +5753,16 @@
         <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C210" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D210" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F210" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -5686,16 +5776,16 @@
         <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C211" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D211" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F211" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -5709,16 +5799,16 @@
         <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C212" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D212" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F212" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -5732,16 +5822,16 @@
         <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C213" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D213" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F213" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H213">
         <v>4</v>
@@ -5755,16 +5845,16 @@
         <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C214" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D214" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F214" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -5778,16 +5868,16 @@
         <v>22</v>
       </c>
       <c r="B215" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C215" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D215" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F215" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -5801,16 +5891,16 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C216" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D216" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F216" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H216">
         <v>5</v>
@@ -5824,16 +5914,16 @@
         <v>22</v>
       </c>
       <c r="B217" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C217" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D217" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F217" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H217">
         <v>2</v>
@@ -5847,16 +5937,16 @@
         <v>22</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C218" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D218" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F218" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -5870,16 +5960,16 @@
         <v>22</v>
       </c>
       <c r="B219" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C219" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D219" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F219" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -5893,16 +5983,16 @@
         <v>22</v>
       </c>
       <c r="B220" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C220" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D220" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F220" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -5916,16 +6006,16 @@
         <v>22</v>
       </c>
       <c r="B221" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C221" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D221" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F221" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -5939,16 +6029,16 @@
         <v>23</v>
       </c>
       <c r="B222" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C222" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D222" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F222" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -5962,16 +6052,16 @@
         <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C223" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D223" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F223" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -5985,16 +6075,16 @@
         <v>23</v>
       </c>
       <c r="B224" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C224" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D224" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F224" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -6008,16 +6098,16 @@
         <v>23</v>
       </c>
       <c r="B225" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C225" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D225" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F225" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -6031,16 +6121,16 @@
         <v>23</v>
       </c>
       <c r="B226" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C226" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D226" t="s">
+        <v>96</v>
+      </c>
+      <c r="F226" t="s">
         <v>86</v>
-      </c>
-      <c r="F226" t="s">
-        <v>76</v>
       </c>
       <c r="H226">
         <v>3</v>
@@ -6054,16 +6144,16 @@
         <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C227" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D227" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F227" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -6077,16 +6167,16 @@
         <v>23</v>
       </c>
       <c r="B228" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C228" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D228" t="s">
+        <v>104</v>
+      </c>
+      <c r="F228" t="s">
         <v>94</v>
-      </c>
-      <c r="F228" t="s">
-        <v>84</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -6100,16 +6190,16 @@
         <v>23</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C229" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D229" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F229" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -6123,16 +6213,16 @@
         <v>23</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C230" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D230" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F230" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -6146,16 +6236,16 @@
         <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C231" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D231" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F231" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H231">
         <v>5</v>
@@ -6169,16 +6259,16 @@
         <v>24</v>
       </c>
       <c r="B232" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C232" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D232" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F232" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H232">
         <v>5</v>
@@ -6192,16 +6282,16 @@
         <v>24</v>
       </c>
       <c r="B233" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C233" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D233" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F233" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H233">
         <v>4</v>
@@ -6215,16 +6305,16 @@
         <v>24</v>
       </c>
       <c r="B234" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C234" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D234" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F234" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H234">
         <v>3</v>
@@ -6238,16 +6328,16 @@
         <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C235" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D235" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F235" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -6261,16 +6351,16 @@
         <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C236" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D236" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F236" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -6284,16 +6374,16 @@
         <v>24</v>
       </c>
       <c r="B237" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C237" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D237" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F237" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -6307,16 +6397,16 @@
         <v>24</v>
       </c>
       <c r="B238" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C238" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D238" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F238" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -6330,16 +6420,16 @@
         <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C239" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D239" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F239" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -6353,16 +6443,16 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C240" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D240" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F240" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -6376,16 +6466,16 @@
         <v>24</v>
       </c>
       <c r="B241" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C241" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D241" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F241" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -6399,16 +6489,16 @@
         <v>25</v>
       </c>
       <c r="B242" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C242" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D242" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F242" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H242">
         <v>2</v>
@@ -6422,16 +6512,16 @@
         <v>25</v>
       </c>
       <c r="B243" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C243" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D243" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F243" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H243">
         <v>3</v>
@@ -6445,16 +6535,16 @@
         <v>25</v>
       </c>
       <c r="B244" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C244" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D244" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F244" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H244">
         <v>2</v>
@@ -6468,16 +6558,16 @@
         <v>25</v>
       </c>
       <c r="B245" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C245" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D245" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F245" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -6491,16 +6581,16 @@
         <v>25</v>
       </c>
       <c r="B246" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C246" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D246" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F246" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H246">
         <v>5</v>
@@ -6514,16 +6604,16 @@
         <v>25</v>
       </c>
       <c r="B247" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C247" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D247" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F247" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -6537,16 +6627,16 @@
         <v>25</v>
       </c>
       <c r="B248" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C248" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D248" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F248" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -6560,16 +6650,16 @@
         <v>25</v>
       </c>
       <c r="B249" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C249" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D249" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F249" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H249">
         <v>2</v>
@@ -6583,16 +6673,16 @@
         <v>25</v>
       </c>
       <c r="B250" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C250" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D250" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F250" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -6606,16 +6696,16 @@
         <v>25</v>
       </c>
       <c r="B251" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C251" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D251" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F251" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -6629,16 +6719,16 @@
         <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D252" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F252" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -6652,16 +6742,16 @@
         <v>26</v>
       </c>
       <c r="B253" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C253" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D253" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F253" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -6675,16 +6765,16 @@
         <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C254" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D254" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F254" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H254">
         <v>2</v>
@@ -6698,16 +6788,16 @@
         <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C255" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D255" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F255" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H255">
         <v>3</v>
@@ -6721,16 +6811,16 @@
         <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C256" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D256" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F256" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -6744,16 +6834,16 @@
         <v>26</v>
       </c>
       <c r="B257" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C257" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D257" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F257" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H257">
         <v>3</v>
@@ -6767,16 +6857,16 @@
         <v>26</v>
       </c>
       <c r="B258" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C258" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D258" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F258" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -6790,16 +6880,16 @@
         <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C259" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D259" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F259" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H259">
         <v>4</v>
@@ -6813,16 +6903,16 @@
         <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C260" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D260" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F260" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H260">
         <v>2</v>
@@ -6836,16 +6926,16 @@
         <v>26</v>
       </c>
       <c r="B261" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C261" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D261" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F261" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -6859,16 +6949,16 @@
         <v>27</v>
       </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C262" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D262" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F262" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H262">
         <v>2</v>
@@ -6882,16 +6972,16 @@
         <v>27</v>
       </c>
       <c r="B263" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C263" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D263" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F263" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H263">
         <v>2</v>
@@ -6905,16 +6995,16 @@
         <v>27</v>
       </c>
       <c r="B264" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C264" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D264" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F264" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H264">
         <v>5</v>
@@ -6928,16 +7018,16 @@
         <v>27</v>
       </c>
       <c r="B265" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C265" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D265" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F265" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H265">
         <v>5</v>
@@ -6951,16 +7041,16 @@
         <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C266" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D266" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F266" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -6974,16 +7064,16 @@
         <v>27</v>
       </c>
       <c r="B267" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C267" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D267" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F267" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H267">
         <v>2</v>
@@ -6997,16 +7087,16 @@
         <v>27</v>
       </c>
       <c r="B268" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C268" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D268" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F268" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H268">
         <v>3</v>
@@ -7020,16 +7110,16 @@
         <v>27</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C269" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D269" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F269" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H269">
         <v>2</v>
@@ -7043,16 +7133,16 @@
         <v>27</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C270" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D270" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F270" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H270">
         <v>3</v>
@@ -7066,16 +7156,16 @@
         <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C271" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D271" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F271" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -7089,16 +7179,16 @@
         <v>28</v>
       </c>
       <c r="B272" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C272" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D272" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F272" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H272">
         <v>3</v>
@@ -7112,16 +7202,16 @@
         <v>28</v>
       </c>
       <c r="B273" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C273" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D273" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F273" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H273">
         <v>2</v>
@@ -7135,16 +7225,16 @@
         <v>28</v>
       </c>
       <c r="B274" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C274" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D274" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F274" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -7158,16 +7248,16 @@
         <v>28</v>
       </c>
       <c r="B275" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C275" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D275" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F275" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -7181,16 +7271,16 @@
         <v>28</v>
       </c>
       <c r="B276" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C276" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D276" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F276" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H276">
         <v>2</v>
@@ -7204,16 +7294,16 @@
         <v>28</v>
       </c>
       <c r="B277" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C277" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D277" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F277" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H277">
         <v>5</v>
@@ -7227,16 +7317,16 @@
         <v>28</v>
       </c>
       <c r="B278" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C278" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D278" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F278" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H278">
         <v>5</v>
@@ -7250,16 +7340,16 @@
         <v>28</v>
       </c>
       <c r="B279" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C279" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D279" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F279" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H279">
         <v>2</v>
@@ -7273,16 +7363,16 @@
         <v>28</v>
       </c>
       <c r="B280" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C280" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D280" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F280" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H280">
         <v>3</v>
@@ -7296,16 +7386,16 @@
         <v>28</v>
       </c>
       <c r="B281" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C281" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D281" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F281" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -7319,16 +7409,16 @@
         <v>29</v>
       </c>
       <c r="B282" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C282" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D282" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F282" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H282">
         <v>3</v>
@@ -7342,16 +7432,16 @@
         <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C283" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D283" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F283" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H283">
         <v>4</v>
@@ -7365,16 +7455,16 @@
         <v>29</v>
       </c>
       <c r="B284" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C284" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D284" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F284" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H284">
         <v>2</v>
@@ -7388,16 +7478,16 @@
         <v>29</v>
       </c>
       <c r="B285" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C285" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D285" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F285" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H285">
         <v>2</v>
@@ -7411,16 +7501,16 @@
         <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C286" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D286" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F286" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H286">
         <v>3</v>
@@ -7434,16 +7524,16 @@
         <v>29</v>
       </c>
       <c r="B287" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C287" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D287" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F287" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H287">
         <v>2</v>
@@ -7457,16 +7547,16 @@
         <v>29</v>
       </c>
       <c r="B288" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C288" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D288" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F288" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H288">
         <v>3</v>
@@ -7480,16 +7570,16 @@
         <v>29</v>
       </c>
       <c r="B289" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C289" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D289" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F289" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H289">
         <v>2</v>
@@ -7503,16 +7593,16 @@
         <v>29</v>
       </c>
       <c r="B290" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C290" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D290" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F290" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -7526,16 +7616,16 @@
         <v>29</v>
       </c>
       <c r="B291" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C291" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D291" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F291" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -7549,16 +7639,16 @@
         <v>30</v>
       </c>
       <c r="B292" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C292" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D292" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F292" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -7572,16 +7662,16 @@
         <v>30</v>
       </c>
       <c r="B293" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C293" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D293" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F293" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -7595,16 +7685,16 @@
         <v>30</v>
       </c>
       <c r="B294" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C294" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D294" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F294" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H294">
         <v>3</v>
@@ -7618,16 +7708,16 @@
         <v>30</v>
       </c>
       <c r="B295" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C295" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D295" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F295" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H295">
         <v>3</v>
@@ -7641,16 +7731,16 @@
         <v>30</v>
       </c>
       <c r="B296" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C296" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D296" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F296" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -7664,16 +7754,16 @@
         <v>30</v>
       </c>
       <c r="B297" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C297" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D297" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F297" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H297">
         <v>3</v>
@@ -7687,16 +7777,16 @@
         <v>30</v>
       </c>
       <c r="B298" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C298" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D298" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F298" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -7710,16 +7800,16 @@
         <v>30</v>
       </c>
       <c r="B299" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C299" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D299" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F299" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H299">
         <v>2</v>
@@ -7733,16 +7823,16 @@
         <v>30</v>
       </c>
       <c r="B300" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C300" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D300" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F300" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -7756,16 +7846,16 @@
         <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C301" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D301" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F301" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -7779,16 +7869,16 @@
         <v>31</v>
       </c>
       <c r="B302" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C302" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D302" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F302" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H302">
         <v>2</v>
@@ -7802,16 +7892,16 @@
         <v>31</v>
       </c>
       <c r="B303" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C303" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D303" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F303" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H303">
         <v>3</v>
@@ -7825,16 +7915,16 @@
         <v>31</v>
       </c>
       <c r="B304" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C304" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D304" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F304" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H304">
         <v>2</v>
@@ -7848,16 +7938,16 @@
         <v>31</v>
       </c>
       <c r="B305" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C305" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D305" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F305" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H305">
         <v>5</v>
@@ -7871,16 +7961,16 @@
         <v>31</v>
       </c>
       <c r="B306" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C306" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D306" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F306" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H306">
         <v>4</v>
@@ -7894,16 +7984,16 @@
         <v>31</v>
       </c>
       <c r="B307" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C307" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D307" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F307" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -7917,16 +8007,16 @@
         <v>31</v>
       </c>
       <c r="B308" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C308" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D308" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F308" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -7940,16 +8030,16 @@
         <v>31</v>
       </c>
       <c r="B309" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C309" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D309" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F309" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H309">
         <v>5</v>
@@ -7963,16 +8053,16 @@
         <v>31</v>
       </c>
       <c r="B310" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C310" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D310" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F310" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H310">
         <v>2</v>
@@ -7986,16 +8076,16 @@
         <v>31</v>
       </c>
       <c r="B311" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C311" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D311" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F311" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H311">
         <v>2</v>
@@ -8009,16 +8099,16 @@
         <v>32</v>
       </c>
       <c r="B312" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C312" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D312" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F312" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -8032,16 +8122,16 @@
         <v>32</v>
       </c>
       <c r="B313" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C313" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D313" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F313" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H313">
         <v>2</v>
@@ -8055,16 +8145,16 @@
         <v>32</v>
       </c>
       <c r="B314" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C314" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D314" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F314" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H314">
         <v>2</v>
@@ -8078,16 +8168,16 @@
         <v>32</v>
       </c>
       <c r="B315" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C315" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D315" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F315" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H315">
         <v>2</v>
@@ -8101,16 +8191,16 @@
         <v>32</v>
       </c>
       <c r="B316" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C316" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D316" t="s">
+        <v>97</v>
+      </c>
+      <c r="F316" t="s">
         <v>87</v>
-      </c>
-      <c r="F316" t="s">
-        <v>77</v>
       </c>
       <c r="H316">
         <v>2</v>
@@ -8124,16 +8214,16 @@
         <v>32</v>
       </c>
       <c r="B317" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C317" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D317" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F317" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H317">
         <v>2</v>
@@ -8147,16 +8237,16 @@
         <v>32</v>
       </c>
       <c r="B318" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C318" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D318" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F318" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H318">
         <v>3</v>
@@ -8170,16 +8260,16 @@
         <v>32</v>
       </c>
       <c r="B319" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C319" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D319" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F319" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H319">
         <v>2</v>
@@ -8193,16 +8283,16 @@
         <v>32</v>
       </c>
       <c r="B320" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C320" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D320" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F320" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -8216,16 +8306,16 @@
         <v>32</v>
       </c>
       <c r="B321" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C321" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D321" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F321" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H321">
         <v>3</v>
@@ -8239,16 +8329,16 @@
         <v>33</v>
       </c>
       <c r="B322" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C322" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D322" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F322" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H322">
         <v>3</v>
@@ -8262,16 +8352,16 @@
         <v>33</v>
       </c>
       <c r="B323" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C323" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D323" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F323" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -8285,16 +8375,16 @@
         <v>33</v>
       </c>
       <c r="B324" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C324" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D324" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F324" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H324">
         <v>2</v>
@@ -8308,16 +8398,16 @@
         <v>33</v>
       </c>
       <c r="B325" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C325" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D325" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F325" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H325">
         <v>5</v>
@@ -8331,16 +8421,16 @@
         <v>33</v>
       </c>
       <c r="B326" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C326" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D326" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F326" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H326">
         <v>3</v>
@@ -8354,16 +8444,16 @@
         <v>33</v>
       </c>
       <c r="B327" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C327" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D327" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F327" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H327">
         <v>5</v>
@@ -8377,16 +8467,16 @@
         <v>33</v>
       </c>
       <c r="B328" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C328" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D328" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F328" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H328">
         <v>4</v>
@@ -8400,16 +8490,16 @@
         <v>33</v>
       </c>
       <c r="B329" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C329" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D329" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F329" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -8423,16 +8513,16 @@
         <v>33</v>
       </c>
       <c r="B330" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C330" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D330" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F330" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H330">
         <v>2</v>
@@ -8446,16 +8536,16 @@
         <v>33</v>
       </c>
       <c r="B331" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C331" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D331" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F331" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H331">
         <v>2</v>
@@ -8469,16 +8559,16 @@
         <v>34</v>
       </c>
       <c r="B332" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C332" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D332" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F332" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H332">
         <v>2</v>
@@ -8492,16 +8582,16 @@
         <v>34</v>
       </c>
       <c r="B333" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C333" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D333" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F333" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H333">
         <v>3</v>
@@ -8515,16 +8605,16 @@
         <v>34</v>
       </c>
       <c r="B334" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C334" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D334" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F334" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H334">
         <v>2</v>
@@ -8538,16 +8628,16 @@
         <v>34</v>
       </c>
       <c r="B335" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C335" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D335" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F335" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H335">
         <v>2</v>
@@ -8561,16 +8651,16 @@
         <v>34</v>
       </c>
       <c r="B336" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C336" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D336" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F336" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -8584,16 +8674,16 @@
         <v>34</v>
       </c>
       <c r="B337" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C337" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D337" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F337" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H337">
         <v>3</v>
@@ -8607,16 +8697,16 @@
         <v>34</v>
       </c>
       <c r="B338" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C338" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D338" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F338" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H338">
         <v>2</v>
@@ -8630,16 +8720,16 @@
         <v>34</v>
       </c>
       <c r="B339" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C339" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D339" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F339" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H339">
         <v>2</v>
@@ -8653,16 +8743,16 @@
         <v>34</v>
       </c>
       <c r="B340" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C340" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D340" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F340" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -8676,16 +8766,16 @@
         <v>34</v>
       </c>
       <c r="B341" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C341" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D341" t="s">
+        <v>98</v>
+      </c>
+      <c r="F341" t="s">
         <v>88</v>
-      </c>
-      <c r="F341" t="s">
-        <v>78</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -8699,16 +8789,16 @@
         <v>35</v>
       </c>
       <c r="B342" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C342" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D342" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F342" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H342">
         <v>2</v>
@@ -8722,16 +8812,16 @@
         <v>35</v>
       </c>
       <c r="B343" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C343" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D343" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F343" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H343">
         <v>2</v>
@@ -8745,16 +8835,16 @@
         <v>35</v>
       </c>
       <c r="B344" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C344" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D344" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F344" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H344">
         <v>3</v>
@@ -8768,16 +8858,16 @@
         <v>35</v>
       </c>
       <c r="B345" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C345" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D345" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F345" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H345">
         <v>3</v>
@@ -8791,16 +8881,16 @@
         <v>35</v>
       </c>
       <c r="B346" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C346" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D346" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F346" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H346">
         <v>4</v>
@@ -8814,16 +8904,16 @@
         <v>35</v>
       </c>
       <c r="B347" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C347" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D347" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F347" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H347">
         <v>2</v>
@@ -8837,16 +8927,16 @@
         <v>35</v>
       </c>
       <c r="B348" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C348" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D348" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F348" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -8860,16 +8950,16 @@
         <v>35</v>
       </c>
       <c r="B349" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C349" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D349" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F349" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H349">
         <v>2</v>
@@ -8883,16 +8973,16 @@
         <v>35</v>
       </c>
       <c r="B350" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C350" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D350" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F350" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H350">
         <v>2</v>
@@ -8906,16 +8996,16 @@
         <v>35</v>
       </c>
       <c r="B351" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C351" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D351" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F351" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H351">
         <v>3</v>
@@ -8929,16 +9019,16 @@
         <v>36</v>
       </c>
       <c r="B352" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C352" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D352" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F352" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H352">
         <v>3</v>
@@ -8952,16 +9042,16 @@
         <v>36</v>
       </c>
       <c r="B353" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C353" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D353" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F353" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H353">
         <v>2</v>
@@ -8975,16 +9065,16 @@
         <v>36</v>
       </c>
       <c r="B354" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C354" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D354" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F354" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H354">
         <v>2</v>
@@ -8998,16 +9088,16 @@
         <v>36</v>
       </c>
       <c r="B355" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C355" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D355" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F355" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H355">
         <v>5</v>
@@ -9021,16 +9111,16 @@
         <v>36</v>
       </c>
       <c r="B356" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C356" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D356" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F356" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H356">
         <v>2</v>
@@ -9044,16 +9134,16 @@
         <v>36</v>
       </c>
       <c r="B357" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C357" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D357" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F357" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H357">
         <v>3</v>
@@ -9067,16 +9157,16 @@
         <v>36</v>
       </c>
       <c r="B358" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C358" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D358" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F358" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H358">
         <v>2</v>
@@ -9090,16 +9180,16 @@
         <v>36</v>
       </c>
       <c r="B359" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C359" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D359" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F359" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H359">
         <v>5</v>
@@ -9113,16 +9203,16 @@
         <v>36</v>
       </c>
       <c r="B360" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C360" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D360" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F360" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H360">
         <v>2</v>
@@ -9136,16 +9226,16 @@
         <v>36</v>
       </c>
       <c r="B361" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C361" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D361" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F361" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H361">
         <v>2</v>
@@ -9159,16 +9249,16 @@
         <v>37</v>
       </c>
       <c r="B362" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C362" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D362" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F362" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H362">
         <v>3</v>
@@ -9182,16 +9272,16 @@
         <v>37</v>
       </c>
       <c r="B363" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C363" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D363" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F363" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H363">
         <v>3</v>
@@ -9205,16 +9295,16 @@
         <v>37</v>
       </c>
       <c r="B364" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C364" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D364" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F364" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H364">
         <v>2</v>
@@ -9228,16 +9318,16 @@
         <v>37</v>
       </c>
       <c r="B365" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C365" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D365" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F365" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H365">
         <v>4</v>
@@ -9251,16 +9341,16 @@
         <v>37</v>
       </c>
       <c r="B366" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C366" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D366" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F366" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H366">
         <v>3</v>
@@ -9274,16 +9364,16 @@
         <v>37</v>
       </c>
       <c r="B367" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C367" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D367" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F367" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H367">
         <v>2</v>
@@ -9297,16 +9387,16 @@
         <v>37</v>
       </c>
       <c r="B368" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C368" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D368" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F368" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H368">
         <v>2</v>
@@ -9320,16 +9410,16 @@
         <v>37</v>
       </c>
       <c r="B369" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C369" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D369" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F369" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H369">
         <v>2</v>
@@ -9343,16 +9433,16 @@
         <v>37</v>
       </c>
       <c r="B370" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C370" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D370" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F370" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H370">
         <v>2</v>
@@ -9366,16 +9456,16 @@
         <v>37</v>
       </c>
       <c r="B371" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C371" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D371" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F371" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H371">
         <v>2</v>
@@ -9389,16 +9479,16 @@
         <v>38</v>
       </c>
       <c r="B372" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C372" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D372" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F372" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H372">
         <v>2</v>
@@ -9412,16 +9502,16 @@
         <v>38</v>
       </c>
       <c r="B373" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C373" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D373" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F373" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H373">
         <v>5</v>
@@ -9435,16 +9525,16 @@
         <v>38</v>
       </c>
       <c r="B374" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C374" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D374" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F374" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -9458,16 +9548,16 @@
         <v>38</v>
       </c>
       <c r="B375" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C375" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D375" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F375" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H375">
         <v>2</v>
@@ -9481,16 +9571,16 @@
         <v>38</v>
       </c>
       <c r="B376" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C376" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D376" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F376" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H376">
         <v>3</v>
@@ -9504,16 +9594,16 @@
         <v>38</v>
       </c>
       <c r="B377" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C377" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D377" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F377" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H377">
         <v>2</v>
@@ -9527,16 +9617,16 @@
         <v>38</v>
       </c>
       <c r="B378" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C378" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D378" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F378" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H378">
         <v>3</v>
@@ -9550,16 +9640,16 @@
         <v>38</v>
       </c>
       <c r="B379" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C379" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D379" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F379" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H379">
         <v>5</v>
@@ -9573,16 +9663,16 @@
         <v>38</v>
       </c>
       <c r="B380" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C380" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D380" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F380" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H380">
         <v>2</v>
@@ -9596,16 +9686,16 @@
         <v>38</v>
       </c>
       <c r="B381" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C381" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D381" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F381" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H381">
         <v>2</v>

--- a/data/fixtures.xlsx
+++ b/data/fixtures.xlsx
@@ -1897,9 +1897,15 @@
       <c r="D42" t="s">
         <v>104</v>
       </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
       <c r="F42" t="s">
         <v>97</v>
       </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
       <c r="H42">
         <v>3</v>
       </c>
@@ -1920,9 +1926,15 @@
       <c r="D43" t="s">
         <v>88</v>
       </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
       <c r="F43" t="s">
         <v>92</v>
       </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
       <c r="H43">
         <v>2</v>
       </c>
@@ -1943,9 +1955,15 @@
       <c r="D44" t="s">
         <v>103</v>
       </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
       <c r="F44" t="s">
         <v>86</v>
       </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
       <c r="H44">
         <v>3</v>
       </c>
@@ -1966,9 +1984,15 @@
       <c r="D45" t="s">
         <v>101</v>
       </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
       <c r="F45" t="s">
         <v>98</v>
       </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
       <c r="H45">
         <v>2</v>
       </c>
@@ -1989,9 +2013,15 @@
       <c r="D46" t="s">
         <v>91</v>
       </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
       <c r="F46" t="s">
         <v>87</v>
       </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
       <c r="H46">
         <v>2</v>
       </c>
@@ -2012,9 +2042,15 @@
       <c r="D47" t="s">
         <v>99</v>
       </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
       <c r="F47" t="s">
         <v>90</v>
       </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
       <c r="H47">
         <v>2</v>
       </c>
@@ -2035,9 +2071,15 @@
       <c r="D48" t="s">
         <v>105</v>
       </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
       <c r="F48" t="s">
         <v>95</v>
       </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
       <c r="H48">
         <v>2</v>
       </c>
@@ -2058,9 +2100,15 @@
       <c r="D49" t="s">
         <v>96</v>
       </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
       <c r="F49" t="s">
         <v>93</v>
       </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
       <c r="H49">
         <v>3</v>
       </c>
@@ -2081,9 +2129,15 @@
       <c r="D50" t="s">
         <v>100</v>
       </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
       <c r="F50" t="s">
         <v>89</v>
       </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
       <c r="H50">
         <v>2</v>
       </c>
@@ -2104,8 +2158,14 @@
       <c r="D51" t="s">
         <v>102</v>
       </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
       <c r="F51" t="s">
         <v>94</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
       </c>
       <c r="H51">
         <v>5</v>

--- a/data/fixtures.xlsx
+++ b/data/fixtures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="126">
   <si>
     <t>Gameweek</t>
   </si>
@@ -151,36 +151,81 @@
     <t>2024-12-04</t>
   </si>
   <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
     <t>2024-12-07</t>
   </si>
   <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
     <t>2024-12-14</t>
   </si>
   <si>
+    <t>2024-12-15</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
     <t>2024-12-21</t>
   </si>
   <si>
+    <t>2024-12-22</t>
+  </si>
+  <si>
     <t>2024-12-26</t>
   </si>
   <si>
+    <t>2024-12-27</t>
+  </si>
+  <si>
     <t>2024-12-29</t>
   </si>
   <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
     <t>2025-01-04</t>
   </si>
   <si>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
     <t>2025-01-14</t>
   </si>
   <si>
     <t>2025-01-15</t>
   </si>
   <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
     <t>2025-01-18</t>
   </si>
   <si>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
     <t>2025-01-25</t>
   </si>
   <si>
+    <t>2025-01-26</t>
+  </si>
+  <si>
     <t>2025-02-01</t>
   </si>
   <si>
@@ -256,6 +301,9 @@
     <t>15:00:00</t>
   </si>
   <si>
+    <t>14:15:00</t>
+  </si>
+  <si>
     <t>17:30:00</t>
   </si>
   <si>
@@ -266,6 +314,18 @@
   </si>
   <si>
     <t>16:00:00</t>
+  </si>
+  <si>
+    <t>19:30:00</t>
+  </si>
+  <si>
+    <t>20:15:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>17:15:00</t>
   </si>
   <si>
     <t>19:45:00</t>
@@ -732,16 +792,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -761,22 +821,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -790,16 +850,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -819,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -837,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -848,16 +908,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -877,16 +937,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -906,16 +966,16 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -935,16 +995,16 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -953,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -964,16 +1024,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -993,22 +1053,22 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1022,16 +1082,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1040,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1051,16 +1111,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1069,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1080,16 +1140,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1109,16 +1169,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -1138,22 +1198,22 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1167,16 +1227,16 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1196,16 +1256,16 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1225,16 +1285,16 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1243,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1254,22 +1314,22 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1283,16 +1343,16 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1312,16 +1372,16 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1341,16 +1401,16 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1359,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1370,16 +1430,16 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1388,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1399,16 +1459,16 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1428,16 +1488,16 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1457,16 +1517,16 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1486,16 +1546,16 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1515,16 +1575,16 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1544,22 +1604,22 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -1573,22 +1633,22 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -1602,16 +1662,16 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1631,16 +1691,16 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1649,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1660,16 +1720,16 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1678,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1689,16 +1749,16 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1718,22 +1778,22 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>5</v>
@@ -1747,16 +1807,16 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1776,16 +1836,16 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -1805,25 +1865,25 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1834,16 +1894,16 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1863,16 +1923,16 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1892,22 +1952,22 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>2</v>
@@ -1921,16 +1981,16 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -1950,16 +2010,16 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -1979,16 +2039,16 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2008,16 +2068,16 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -2037,16 +2097,16 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2066,16 +2126,16 @@
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2095,16 +2155,16 @@
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2113,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2124,25 +2184,25 @@
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2153,16 +2213,16 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -2182,13 +2242,19 @@
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
       <c r="H52">
         <v>5</v>
@@ -2205,13 +2271,19 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>118</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2228,19 +2300,25 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>125</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2251,13 +2329,19 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>124</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2274,19 +2358,25 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>101</v>
+        <v>121</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2297,13 +2387,19 @@
         <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -2320,16 +2416,22 @@
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>108</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -2343,13 +2445,19 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>119</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -2366,16 +2474,22 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -2389,19 +2503,25 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>111</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
       </c>
       <c r="H61">
         <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2412,19 +2532,25 @@
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2435,13 +2561,19 @@
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>110</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -2458,19 +2590,25 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>108</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>105</v>
+        <v>125</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2481,13 +2619,19 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>111</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>118</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -2504,13 +2648,19 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D66" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -2527,13 +2677,19 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>119</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -2550,19 +2706,25 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>121</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
       </c>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2573,13 +2735,19 @@
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -2596,16 +2764,22 @@
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
+        <v>124</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -2619,19 +2793,25 @@
         <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2642,13 +2822,19 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -2665,13 +2851,19 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>92</v>
+        <v>112</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -2688,19 +2880,25 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>125</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>116</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2711,19 +2909,25 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>123</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2734,19 +2938,25 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2757,13 +2967,19 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>121</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -2780,19 +2996,25 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>122</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>111</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
       </c>
       <c r="H78">
         <v>5</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2803,13 +3025,19 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>108</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -2826,16 +3054,22 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>124</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>107</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80">
         <v>5</v>
@@ -2849,13 +3083,19 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -2872,16 +3112,16 @@
         <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -2895,13 +3135,13 @@
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -2918,19 +3158,19 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2941,19 +3181,19 @@
         <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2964,13 +3204,13 @@
         <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -2987,19 +3227,19 @@
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H87">
         <v>2</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3010,13 +3250,13 @@
         <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -3033,19 +3273,19 @@
         <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3056,13 +3296,13 @@
         <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -3079,16 +3319,16 @@
         <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F91" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I91">
         <v>5</v>
@@ -3102,13 +3342,13 @@
         <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -3125,19 +3365,19 @@
         <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F93" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H93">
         <v>5</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3148,13 +3388,13 @@
         <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -3171,13 +3411,13 @@
         <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -3194,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F96" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -3217,13 +3457,13 @@
         <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F97" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -3240,13 +3480,13 @@
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -3263,13 +3503,13 @@
         <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F99" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -3286,16 +3526,16 @@
         <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D100" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F100" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <v>3</v>
@@ -3309,13 +3549,13 @@
         <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -3332,19 +3572,19 @@
         <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D102" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F102" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3355,19 +3595,19 @@
         <v>35</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D103" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F103" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H103">
         <v>2</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3378,13 +3618,13 @@
         <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F104" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -3401,13 +3641,13 @@
         <v>35</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F105" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -3424,19 +3664,19 @@
         <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D106" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F106" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H106">
         <v>5</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3447,13 +3687,13 @@
         <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F107" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H107">
         <v>3</v>
@@ -3470,13 +3710,13 @@
         <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F108" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -3493,13 +3733,13 @@
         <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D109" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -3516,13 +3756,13 @@
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F110" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -3539,13 +3779,13 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H111">
         <v>5</v>
@@ -3562,16 +3802,16 @@
         <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D112" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F112" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -3585,16 +3825,16 @@
         <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D113" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F113" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
         <v>5</v>
@@ -3608,13 +3848,13 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D114" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -3631,19 +3871,19 @@
         <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D115" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3654,19 +3894,19 @@
         <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D116" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F116" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3677,13 +3917,13 @@
         <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F117" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -3700,16 +3940,16 @@
         <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D118" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F118" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118">
         <v>5</v>
@@ -3723,16 +3963,16 @@
         <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D119" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F119" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -3746,13 +3986,13 @@
         <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D120" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F120" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -3769,13 +4009,13 @@
         <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D121" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F121" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -3792,19 +4032,19 @@
         <v>40</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D122" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F122" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3815,19 +4055,19 @@
         <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D123" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F123" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3838,19 +4078,19 @@
         <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D124" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F124" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -3861,13 +4101,13 @@
         <v>41</v>
       </c>
       <c r="C125" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D125" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F125" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -3884,13 +4124,13 @@
         <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D126" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F126" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -3907,13 +4147,13 @@
         <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D127" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F127" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H127">
         <v>5</v>
@@ -3930,13 +4170,13 @@
         <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F128" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H128">
         <v>3</v>
@@ -3953,13 +4193,13 @@
         <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D129" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F129" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -3976,13 +4216,13 @@
         <v>42</v>
       </c>
       <c r="C130" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D130" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F130" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -3999,13 +4239,13 @@
         <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D131" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F131" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -4022,19 +4262,19 @@
         <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F132" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4045,19 +4285,19 @@
         <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D133" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F133" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4065,19 +4305,19 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C134" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F134" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -4088,22 +4328,22 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C135" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D135" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F135" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4111,22 +4351,22 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D136" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F136" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4134,19 +4374,19 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D137" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="F137" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -4157,22 +4397,22 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D138" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F138" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4183,19 +4423,19 @@
         <v>44</v>
       </c>
       <c r="C139" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D139" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F139" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="H139">
         <v>2</v>
       </c>
       <c r="I139">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4203,22 +4443,22 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D140" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F140" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4226,22 +4466,22 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C141" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D141" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F141" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4249,22 +4489,22 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C142" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D142" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F142" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4272,22 +4512,22 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C143" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D143" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F143" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4295,19 +4535,19 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C144" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D144" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F144" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>3</v>
@@ -4318,22 +4558,22 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C145" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D145" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F145" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4341,19 +4581,19 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C146" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D146" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F146" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="H146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I146">
         <v>3</v>
@@ -4364,22 +4604,22 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D147" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F147" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4387,16 +4627,16 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C148" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D148" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F148" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -4410,22 +4650,22 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C149" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D149" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F149" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H149">
         <v>2</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4433,19 +4673,19 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C150" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D150" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F150" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -4456,16 +4696,16 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C151" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D151" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F151" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -4479,16 +4719,16 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C152" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D152" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F152" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -4502,22 +4742,22 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C153" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D153" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F153" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4525,22 +4765,22 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C154" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D154" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="F154" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4548,22 +4788,22 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C155" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D155" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F155" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H155">
         <v>2</v>
       </c>
       <c r="I155">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4571,22 +4811,22 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C156" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D156" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F156" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4594,22 +4834,22 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C157" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D157" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F157" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4617,22 +4857,22 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C158" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D158" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F158" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4640,22 +4880,22 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D159" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F159" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -4663,19 +4903,19 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C160" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D160" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F160" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -4686,22 +4926,22 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C161" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D161" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F161" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -4709,16 +4949,16 @@
         <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D162" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F162" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H162">
         <v>5</v>
@@ -4732,22 +4972,22 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C163" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D163" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F163" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -4755,22 +4995,22 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C164" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D164" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F164" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="H164">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -4778,19 +5018,19 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D165" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F165" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>3</v>
@@ -4801,22 +5041,22 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D166" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F166" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H166">
         <v>2</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -4824,19 +5064,19 @@
         <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D167" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F167" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -4847,19 +5087,19 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D168" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F168" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -4870,16 +5110,16 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C169" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D169" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F169" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -4893,22 +5133,22 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C170" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D170" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F170" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -4916,22 +5156,22 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C171" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D171" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F171" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -4939,16 +5179,16 @@
         <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C172" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D172" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F172" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -4962,22 +5202,22 @@
         <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C173" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D173" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F173" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -4985,22 +5225,22 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C174" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D174" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F174" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5008,19 +5248,19 @@
         <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C175" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F175" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
         <v>4</v>
@@ -5031,22 +5271,22 @@
         <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C176" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D176" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F176" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5054,22 +5294,22 @@
         <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C177" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D177" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F177" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5077,22 +5317,22 @@
         <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C178" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D178" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F178" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H178">
         <v>3</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5100,22 +5340,22 @@
         <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C179" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D179" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F179" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5123,22 +5363,22 @@
         <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C180" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D180" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="F180" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5146,22 +5386,22 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C181" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D181" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F181" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5169,22 +5409,22 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C182" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D182" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F182" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5192,19 +5432,19 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C183" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D183" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F183" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H183">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -5215,22 +5455,22 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C184" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F184" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5238,16 +5478,16 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C185" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D185" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F185" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -5261,22 +5501,22 @@
         <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C186" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D186" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F186" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5284,19 +5524,19 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C187" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D187" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F187" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I187">
         <v>2</v>
@@ -5307,22 +5547,22 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C188" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D188" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F188" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5330,22 +5570,22 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C189" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D189" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F189" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5353,22 +5593,22 @@
         <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C190" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D190" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="F190" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5376,22 +5616,22 @@
         <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C191" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="F191" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5399,19 +5639,19 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C192" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D192" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="F192" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>4</v>
@@ -5422,22 +5662,22 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C193" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D193" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F193" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H193">
         <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -5445,22 +5685,22 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C194" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D194" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F194" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="H194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -5468,22 +5708,22 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C195" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D195" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F195" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I195">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -5491,22 +5731,22 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C196" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D196" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F196" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -5514,22 +5754,22 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C197" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D197" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F197" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -5537,22 +5777,22 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C198" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="F198" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I198">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -5560,22 +5800,22 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C199" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D199" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F199" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H199">
         <v>2</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -5583,22 +5823,22 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C200" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D200" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F200" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H200">
         <v>3</v>
       </c>
       <c r="I200">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -5606,19 +5846,19 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D201" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F201" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -5629,22 +5869,22 @@
         <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D202" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F202" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I202">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -5652,22 +5892,22 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C203" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D203" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F203" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -5675,22 +5915,22 @@
         <v>21</v>
       </c>
       <c r="B204" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C204" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D204" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F204" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -5698,19 +5938,19 @@
         <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C205" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D205" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F205" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I205">
         <v>2</v>
@@ -5721,19 +5961,19 @@
         <v>21</v>
       </c>
       <c r="B206" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C206" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D206" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F206" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I206">
         <v>2</v>
@@ -5744,19 +5984,19 @@
         <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C207" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D207" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F207" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>2</v>
@@ -5767,22 +6007,22 @@
         <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C208" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D208" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F208" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -5790,22 +6030,22 @@
         <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C209" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D209" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F209" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I209">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -5813,22 +6053,22 @@
         <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D210" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F210" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -5836,16 +6076,16 @@
         <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D211" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F211" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H211">
         <v>2</v>
@@ -5859,22 +6099,22 @@
         <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C212" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D212" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F212" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -5882,22 +6122,22 @@
         <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C213" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D213" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F213" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -5905,22 +6145,22 @@
         <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C214" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D214" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F214" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H214">
         <v>2</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -5928,22 +6168,22 @@
         <v>22</v>
       </c>
       <c r="B215" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C215" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D215" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F215" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -5951,22 +6191,22 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C216" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D216" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F216" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -5974,19 +6214,19 @@
         <v>22</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C217" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D217" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F217" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -5997,16 +6237,16 @@
         <v>22</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C218" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D218" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F218" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -6020,22 +6260,22 @@
         <v>22</v>
       </c>
       <c r="B219" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C219" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D219" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F219" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="H219">
         <v>2</v>
       </c>
       <c r="I219">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6043,19 +6283,19 @@
         <v>22</v>
       </c>
       <c r="B220" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C220" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D220" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F220" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -6066,22 +6306,22 @@
         <v>22</v>
       </c>
       <c r="B221" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C221" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D221" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F221" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="H221">
         <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -6089,22 +6329,22 @@
         <v>23</v>
       </c>
       <c r="B222" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C222" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D222" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F222" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -6112,22 +6352,22 @@
         <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C223" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D223" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F223" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H223">
         <v>2</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -6135,22 +6375,22 @@
         <v>23</v>
       </c>
       <c r="B224" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D224" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="F224" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H224">
         <v>2</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6158,22 +6398,22 @@
         <v>23</v>
       </c>
       <c r="B225" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C225" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D225" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F225" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6181,22 +6421,22 @@
         <v>23</v>
       </c>
       <c r="B226" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C226" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D226" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="F226" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6204,19 +6444,19 @@
         <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C227" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D227" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F227" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I227">
         <v>5</v>
@@ -6227,22 +6467,22 @@
         <v>23</v>
       </c>
       <c r="B228" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C228" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D228" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F228" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -6250,22 +6490,22 @@
         <v>23</v>
       </c>
       <c r="B229" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C229" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D229" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F229" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -6273,16 +6513,16 @@
         <v>23</v>
       </c>
       <c r="B230" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C230" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D230" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F230" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -6296,22 +6536,22 @@
         <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C231" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D231" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F231" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -6319,16 +6559,16 @@
         <v>24</v>
       </c>
       <c r="B232" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C232" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D232" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F232" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H232">
         <v>5</v>
@@ -6342,22 +6582,22 @@
         <v>24</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C233" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D233" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F233" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -6365,22 +6605,22 @@
         <v>24</v>
       </c>
       <c r="B234" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C234" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D234" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F234" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -6388,16 +6628,16 @@
         <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C235" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D235" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F235" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -6411,22 +6651,22 @@
         <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C236" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D236" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F236" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H236">
         <v>2</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -6434,16 +6674,16 @@
         <v>24</v>
       </c>
       <c r="B237" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C237" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D237" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F237" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -6457,16 +6697,16 @@
         <v>24</v>
       </c>
       <c r="B238" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C238" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D238" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F238" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -6480,16 +6720,16 @@
         <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C239" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D239" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F239" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -6503,16 +6743,16 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C240" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D240" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F240" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -6526,16 +6766,16 @@
         <v>24</v>
       </c>
       <c r="B241" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C241" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D241" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F241" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H241">
         <v>3</v>
@@ -6549,16 +6789,16 @@
         <v>25</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C242" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D242" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F242" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H242">
         <v>2</v>
@@ -6572,22 +6812,22 @@
         <v>25</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C243" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D243" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F243" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -6595,22 +6835,22 @@
         <v>25</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C244" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D244" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F244" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -6618,19 +6858,19 @@
         <v>25</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C245" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D245" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F245" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I245">
         <v>3</v>
@@ -6641,16 +6881,16 @@
         <v>25</v>
       </c>
       <c r="B246" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C246" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D246" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F246" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H246">
         <v>5</v>
@@ -6664,16 +6904,16 @@
         <v>25</v>
       </c>
       <c r="B247" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C247" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D247" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F247" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H247">
         <v>2</v>
@@ -6687,16 +6927,16 @@
         <v>25</v>
       </c>
       <c r="B248" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C248" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D248" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F248" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -6710,16 +6950,16 @@
         <v>25</v>
       </c>
       <c r="B249" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C249" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D249" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F249" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H249">
         <v>2</v>
@@ -6733,16 +6973,16 @@
         <v>25</v>
       </c>
       <c r="B250" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C250" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D250" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F250" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -6756,16 +6996,16 @@
         <v>25</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C251" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D251" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F251" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -6779,16 +7019,16 @@
         <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C252" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D252" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F252" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H252">
         <v>2</v>
@@ -6802,19 +7042,19 @@
         <v>26</v>
       </c>
       <c r="B253" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C253" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D253" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F253" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I253">
         <v>4</v>
@@ -6825,22 +7065,22 @@
         <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C254" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D254" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F254" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H254">
         <v>2</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -6848,22 +7088,22 @@
         <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C255" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D255" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F255" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H255">
         <v>3</v>
       </c>
       <c r="I255">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -6871,16 +7111,16 @@
         <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C256" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D256" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F256" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -6894,19 +7134,19 @@
         <v>26</v>
       </c>
       <c r="B257" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C257" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D257" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F257" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I257">
         <v>2</v>
@@ -6917,16 +7157,16 @@
         <v>26</v>
       </c>
       <c r="B258" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C258" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D258" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F258" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H258">
         <v>2</v>
@@ -6940,19 +7180,19 @@
         <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C259" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D259" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F259" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I259">
         <v>5</v>
@@ -6963,19 +7203,19 @@
         <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C260" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D260" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F260" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I260">
         <v>4</v>
@@ -6986,16 +7226,16 @@
         <v>26</v>
       </c>
       <c r="B261" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C261" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D261" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F261" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H261">
         <v>2</v>
@@ -7009,22 +7249,22 @@
         <v>27</v>
       </c>
       <c r="B262" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C262" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D262" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F262" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H262">
         <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7032,22 +7272,22 @@
         <v>27</v>
       </c>
       <c r="B263" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C263" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D263" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F263" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H263">
         <v>2</v>
       </c>
       <c r="I263">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7055,16 +7295,16 @@
         <v>27</v>
       </c>
       <c r="B264" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C264" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D264" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F264" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H264">
         <v>5</v>
@@ -7078,16 +7318,16 @@
         <v>27</v>
       </c>
       <c r="B265" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C265" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D265" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F265" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H265">
         <v>5</v>
@@ -7101,16 +7341,16 @@
         <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C266" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D266" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F266" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -7124,16 +7364,16 @@
         <v>27</v>
       </c>
       <c r="B267" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C267" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D267" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F267" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H267">
         <v>2</v>
@@ -7147,22 +7387,22 @@
         <v>27</v>
       </c>
       <c r="B268" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C268" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D268" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F268" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H268">
         <v>3</v>
       </c>
       <c r="I268">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7170,16 +7410,16 @@
         <v>27</v>
       </c>
       <c r="B269" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C269" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D269" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F269" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H269">
         <v>2</v>
@@ -7193,16 +7433,16 @@
         <v>27</v>
       </c>
       <c r="B270" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C270" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D270" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F270" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H270">
         <v>3</v>
@@ -7216,16 +7456,16 @@
         <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C271" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D271" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F271" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -7239,22 +7479,22 @@
         <v>28</v>
       </c>
       <c r="B272" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C272" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D272" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F272" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H272">
         <v>3</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -7262,22 +7502,22 @@
         <v>28</v>
       </c>
       <c r="B273" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C273" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D273" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F273" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H273">
         <v>2</v>
       </c>
       <c r="I273">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -7285,16 +7525,16 @@
         <v>28</v>
       </c>
       <c r="B274" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C274" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D274" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F274" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H274">
         <v>2</v>
@@ -7308,22 +7548,22 @@
         <v>28</v>
       </c>
       <c r="B275" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C275" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D275" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F275" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H275">
         <v>2</v>
       </c>
       <c r="I275">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -7331,16 +7571,16 @@
         <v>28</v>
       </c>
       <c r="B276" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C276" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D276" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F276" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H276">
         <v>2</v>
@@ -7354,16 +7594,16 @@
         <v>28</v>
       </c>
       <c r="B277" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C277" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D277" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F277" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H277">
         <v>5</v>
@@ -7377,16 +7617,16 @@
         <v>28</v>
       </c>
       <c r="B278" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C278" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D278" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F278" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H278">
         <v>5</v>
@@ -7400,16 +7640,16 @@
         <v>28</v>
       </c>
       <c r="B279" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C279" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D279" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F279" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H279">
         <v>2</v>
@@ -7423,16 +7663,16 @@
         <v>28</v>
       </c>
       <c r="B280" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C280" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D280" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F280" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H280">
         <v>3</v>
@@ -7446,16 +7686,16 @@
         <v>28</v>
       </c>
       <c r="B281" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C281" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D281" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F281" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -7469,19 +7709,19 @@
         <v>29</v>
       </c>
       <c r="B282" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C282" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D282" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F282" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H282">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I282">
         <v>5</v>
@@ -7492,19 +7732,19 @@
         <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C283" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D283" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F283" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I283">
         <v>4</v>
@@ -7515,22 +7755,22 @@
         <v>29</v>
       </c>
       <c r="B284" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C284" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D284" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F284" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H284">
         <v>2</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -7538,22 +7778,22 @@
         <v>29</v>
       </c>
       <c r="B285" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C285" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D285" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F285" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H285">
         <v>2</v>
       </c>
       <c r="I285">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -7561,19 +7801,19 @@
         <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C286" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D286" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F286" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I286">
         <v>3</v>
@@ -7584,19 +7824,19 @@
         <v>29</v>
       </c>
       <c r="B287" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C287" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D287" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F287" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -7607,16 +7847,16 @@
         <v>29</v>
       </c>
       <c r="B288" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C288" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D288" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F288" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H288">
         <v>3</v>
@@ -7630,16 +7870,16 @@
         <v>29</v>
       </c>
       <c r="B289" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C289" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D289" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F289" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H289">
         <v>2</v>
@@ -7653,16 +7893,16 @@
         <v>29</v>
       </c>
       <c r="B290" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C290" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D290" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F290" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -7676,16 +7916,16 @@
         <v>29</v>
       </c>
       <c r="B291" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C291" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D291" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F291" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H291">
         <v>2</v>
@@ -7699,16 +7939,16 @@
         <v>30</v>
       </c>
       <c r="B292" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C292" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D292" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F292" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H292">
         <v>2</v>
@@ -7722,22 +7962,22 @@
         <v>30</v>
       </c>
       <c r="B293" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C293" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D293" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F293" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H293">
         <v>2</v>
       </c>
       <c r="I293">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -7745,22 +7985,22 @@
         <v>30</v>
       </c>
       <c r="B294" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C294" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D294" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F294" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H294">
         <v>3</v>
       </c>
       <c r="I294">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -7768,16 +8008,16 @@
         <v>30</v>
       </c>
       <c r="B295" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D295" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F295" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H295">
         <v>3</v>
@@ -7791,16 +8031,16 @@
         <v>30</v>
       </c>
       <c r="B296" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C296" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D296" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F296" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -7814,19 +8054,19 @@
         <v>30</v>
       </c>
       <c r="B297" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C297" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D297" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F297" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -7837,16 +8077,16 @@
         <v>30</v>
       </c>
       <c r="B298" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C298" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D298" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F298" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -7860,16 +8100,16 @@
         <v>30</v>
       </c>
       <c r="B299" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C299" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D299" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F299" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H299">
         <v>2</v>
@@ -7883,16 +8123,16 @@
         <v>30</v>
       </c>
       <c r="B300" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C300" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D300" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F300" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H300">
         <v>2</v>
@@ -7906,16 +8146,16 @@
         <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C301" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D301" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F301" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H301">
         <v>2</v>
@@ -7929,19 +8169,19 @@
         <v>31</v>
       </c>
       <c r="B302" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C302" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D302" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F302" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I302">
         <v>4</v>
@@ -7952,22 +8192,22 @@
         <v>31</v>
       </c>
       <c r="B303" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C303" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D303" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F303" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H303">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -7975,22 +8215,22 @@
         <v>31</v>
       </c>
       <c r="B304" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C304" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D304" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F304" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H304">
         <v>2</v>
       </c>
       <c r="I304">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -7998,22 +8238,22 @@
         <v>31</v>
       </c>
       <c r="B305" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C305" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D305" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F305" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H305">
         <v>5</v>
       </c>
       <c r="I305">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -8021,19 +8261,19 @@
         <v>31</v>
       </c>
       <c r="B306" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C306" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D306" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F306" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I306">
         <v>3</v>
@@ -8044,16 +8284,16 @@
         <v>31</v>
       </c>
       <c r="B307" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C307" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D307" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F307" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H307">
         <v>2</v>
@@ -8067,16 +8307,16 @@
         <v>31</v>
       </c>
       <c r="B308" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C308" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D308" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F308" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -8090,16 +8330,16 @@
         <v>31</v>
       </c>
       <c r="B309" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C309" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D309" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F309" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H309">
         <v>5</v>
@@ -8113,16 +8353,16 @@
         <v>31</v>
       </c>
       <c r="B310" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C310" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D310" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F310" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H310">
         <v>2</v>
@@ -8136,16 +8376,16 @@
         <v>31</v>
       </c>
       <c r="B311" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C311" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D311" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F311" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H311">
         <v>2</v>
@@ -8159,16 +8399,16 @@
         <v>32</v>
       </c>
       <c r="B312" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C312" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D312" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F312" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H312">
         <v>2</v>
@@ -8182,22 +8422,22 @@
         <v>32</v>
       </c>
       <c r="B313" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C313" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D313" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F313" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H313">
         <v>2</v>
       </c>
       <c r="I313">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -8205,22 +8445,22 @@
         <v>32</v>
       </c>
       <c r="B314" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C314" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D314" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F314" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H314">
         <v>2</v>
       </c>
       <c r="I314">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -8228,16 +8468,16 @@
         <v>32</v>
       </c>
       <c r="B315" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C315" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D315" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F315" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H315">
         <v>2</v>
@@ -8251,16 +8491,16 @@
         <v>32</v>
       </c>
       <c r="B316" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C316" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D316" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F316" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H316">
         <v>2</v>
@@ -8274,16 +8514,16 @@
         <v>32</v>
       </c>
       <c r="B317" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C317" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D317" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F317" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H317">
         <v>2</v>
@@ -8297,16 +8537,16 @@
         <v>32</v>
       </c>
       <c r="B318" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C318" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D318" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F318" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H318">
         <v>3</v>
@@ -8320,16 +8560,16 @@
         <v>32</v>
       </c>
       <c r="B319" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C319" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D319" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F319" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H319">
         <v>2</v>
@@ -8343,16 +8583,16 @@
         <v>32</v>
       </c>
       <c r="B320" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C320" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D320" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F320" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -8366,19 +8606,19 @@
         <v>32</v>
       </c>
       <c r="B321" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C321" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D321" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F321" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I321">
         <v>2</v>
@@ -8389,16 +8629,16 @@
         <v>33</v>
       </c>
       <c r="B322" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C322" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D322" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F322" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H322">
         <v>3</v>
@@ -8412,22 +8652,22 @@
         <v>33</v>
       </c>
       <c r="B323" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C323" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D323" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F323" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H323">
         <v>2</v>
       </c>
       <c r="I323">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -8435,22 +8675,22 @@
         <v>33</v>
       </c>
       <c r="B324" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C324" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D324" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F324" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H324">
         <v>2</v>
       </c>
       <c r="I324">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -8458,22 +8698,22 @@
         <v>33</v>
       </c>
       <c r="B325" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C325" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D325" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F325" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H325">
         <v>5</v>
       </c>
       <c r="I325">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -8481,19 +8721,19 @@
         <v>33</v>
       </c>
       <c r="B326" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C326" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D326" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F326" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H326">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I326">
         <v>3</v>
@@ -8504,16 +8744,16 @@
         <v>33</v>
       </c>
       <c r="B327" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C327" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D327" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F327" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H327">
         <v>5</v>
@@ -8527,19 +8767,19 @@
         <v>33</v>
       </c>
       <c r="B328" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C328" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D328" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F328" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H328">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -8550,16 +8790,16 @@
         <v>33</v>
       </c>
       <c r="B329" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C329" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D329" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F329" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -8573,19 +8813,19 @@
         <v>33</v>
       </c>
       <c r="B330" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C330" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D330" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F330" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I330">
         <v>4</v>
@@ -8596,16 +8836,16 @@
         <v>33</v>
       </c>
       <c r="B331" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C331" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D331" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F331" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H331">
         <v>2</v>
@@ -8619,16 +8859,16 @@
         <v>34</v>
       </c>
       <c r="B332" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C332" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D332" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F332" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H332">
         <v>2</v>
@@ -8642,22 +8882,22 @@
         <v>34</v>
       </c>
       <c r="B333" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C333" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D333" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F333" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H333">
         <v>3</v>
       </c>
       <c r="I333">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -8665,22 +8905,22 @@
         <v>34</v>
       </c>
       <c r="B334" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C334" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D334" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F334" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H334">
         <v>2</v>
       </c>
       <c r="I334">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -8688,16 +8928,16 @@
         <v>34</v>
       </c>
       <c r="B335" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C335" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D335" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F335" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H335">
         <v>2</v>
@@ -8711,19 +8951,19 @@
         <v>34</v>
       </c>
       <c r="B336" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C336" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D336" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F336" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I336">
         <v>5</v>
@@ -8734,16 +8974,16 @@
         <v>34</v>
       </c>
       <c r="B337" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C337" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D337" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F337" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H337">
         <v>3</v>
@@ -8757,16 +8997,16 @@
         <v>34</v>
       </c>
       <c r="B338" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C338" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D338" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F338" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H338">
         <v>2</v>
@@ -8780,16 +9020,16 @@
         <v>34</v>
       </c>
       <c r="B339" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C339" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D339" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F339" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H339">
         <v>2</v>
@@ -8803,16 +9043,16 @@
         <v>34</v>
       </c>
       <c r="B340" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C340" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D340" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F340" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H340">
         <v>2</v>
@@ -8826,16 +9066,16 @@
         <v>34</v>
       </c>
       <c r="B341" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C341" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D341" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F341" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -8849,16 +9089,16 @@
         <v>35</v>
       </c>
       <c r="B342" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C342" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D342" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F342" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H342">
         <v>2</v>
@@ -8872,16 +9112,16 @@
         <v>35</v>
       </c>
       <c r="B343" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C343" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D343" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F343" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H343">
         <v>2</v>
@@ -8895,22 +9135,22 @@
         <v>35</v>
       </c>
       <c r="B344" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C344" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D344" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F344" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H344">
         <v>3</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -8918,22 +9158,22 @@
         <v>35</v>
       </c>
       <c r="B345" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C345" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D345" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F345" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H345">
         <v>3</v>
       </c>
       <c r="I345">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -8941,19 +9181,19 @@
         <v>35</v>
       </c>
       <c r="B346" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C346" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D346" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F346" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H346">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -8964,22 +9204,22 @@
         <v>35</v>
       </c>
       <c r="B347" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C347" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D347" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F347" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I347">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -8987,22 +9227,22 @@
         <v>35</v>
       </c>
       <c r="B348" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C348" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D348" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F348" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H348">
         <v>2</v>
       </c>
       <c r="I348">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -9010,16 +9250,16 @@
         <v>35</v>
       </c>
       <c r="B349" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C349" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D349" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F349" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H349">
         <v>2</v>
@@ -9033,16 +9273,16 @@
         <v>35</v>
       </c>
       <c r="B350" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C350" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D350" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F350" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H350">
         <v>2</v>
@@ -9056,19 +9296,19 @@
         <v>35</v>
       </c>
       <c r="B351" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C351" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D351" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F351" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I351">
         <v>2</v>
@@ -9079,22 +9319,22 @@
         <v>36</v>
       </c>
       <c r="B352" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C352" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D352" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F352" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H352">
         <v>3</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -9102,16 +9342,16 @@
         <v>36</v>
       </c>
       <c r="B353" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C353" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D353" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F353" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H353">
         <v>2</v>
@@ -9125,16 +9365,16 @@
         <v>36</v>
       </c>
       <c r="B354" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C354" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D354" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F354" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H354">
         <v>2</v>
@@ -9148,16 +9388,16 @@
         <v>36</v>
       </c>
       <c r="B355" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C355" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D355" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F355" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H355">
         <v>5</v>
@@ -9171,16 +9411,16 @@
         <v>36</v>
       </c>
       <c r="B356" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C356" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D356" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F356" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H356">
         <v>2</v>
@@ -9194,19 +9434,19 @@
         <v>36</v>
       </c>
       <c r="B357" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C357" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D357" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F357" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I357">
         <v>4</v>
@@ -9217,16 +9457,16 @@
         <v>36</v>
       </c>
       <c r="B358" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C358" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D358" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F358" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H358">
         <v>2</v>
@@ -9240,16 +9480,16 @@
         <v>36</v>
       </c>
       <c r="B359" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C359" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D359" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F359" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H359">
         <v>5</v>
@@ -9263,16 +9503,16 @@
         <v>36</v>
       </c>
       <c r="B360" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C360" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D360" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F360" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H360">
         <v>2</v>
@@ -9286,16 +9526,16 @@
         <v>36</v>
       </c>
       <c r="B361" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C361" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D361" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F361" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H361">
         <v>2</v>
@@ -9309,16 +9549,16 @@
         <v>37</v>
       </c>
       <c r="B362" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C362" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D362" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F362" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H362">
         <v>3</v>
@@ -9332,19 +9572,19 @@
         <v>37</v>
       </c>
       <c r="B363" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C363" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D363" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F363" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I363">
         <v>4</v>
@@ -9355,22 +9595,22 @@
         <v>37</v>
       </c>
       <c r="B364" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C364" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D364" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F364" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H364">
         <v>2</v>
       </c>
       <c r="I364">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -9378,22 +9618,22 @@
         <v>37</v>
       </c>
       <c r="B365" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C365" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D365" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F365" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H365">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -9401,16 +9641,16 @@
         <v>37</v>
       </c>
       <c r="B366" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C366" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D366" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F366" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H366">
         <v>3</v>
@@ -9424,22 +9664,22 @@
         <v>37</v>
       </c>
       <c r="B367" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C367" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D367" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F367" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H367">
         <v>2</v>
       </c>
       <c r="I367">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -9447,22 +9687,22 @@
         <v>37</v>
       </c>
       <c r="B368" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C368" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D368" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F368" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="H368">
         <v>2</v>
       </c>
       <c r="I368">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -9470,16 +9710,16 @@
         <v>37</v>
       </c>
       <c r="B369" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C369" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D369" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F369" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H369">
         <v>2</v>
@@ -9493,16 +9733,16 @@
         <v>37</v>
       </c>
       <c r="B370" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C370" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D370" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F370" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="H370">
         <v>2</v>
@@ -9516,19 +9756,19 @@
         <v>37</v>
       </c>
       <c r="B371" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C371" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D371" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F371" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I371">
         <v>2</v>
@@ -9539,22 +9779,22 @@
         <v>38</v>
       </c>
       <c r="B372" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C372" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D372" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F372" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H372">
         <v>2</v>
       </c>
       <c r="I372">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -9562,16 +9802,16 @@
         <v>38</v>
       </c>
       <c r="B373" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C373" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D373" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F373" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H373">
         <v>5</v>
@@ -9585,16 +9825,16 @@
         <v>38</v>
       </c>
       <c r="B374" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C374" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D374" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F374" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -9608,16 +9848,16 @@
         <v>38</v>
       </c>
       <c r="B375" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C375" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D375" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F375" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="H375">
         <v>2</v>
@@ -9631,16 +9871,16 @@
         <v>38</v>
       </c>
       <c r="B376" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C376" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D376" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F376" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H376">
         <v>3</v>
@@ -9654,16 +9894,16 @@
         <v>38</v>
       </c>
       <c r="B377" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C377" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D377" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F377" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H377">
         <v>2</v>
@@ -9677,19 +9917,19 @@
         <v>38</v>
       </c>
       <c r="B378" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C378" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D378" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F378" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H378">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -9700,16 +9940,16 @@
         <v>38</v>
       </c>
       <c r="B379" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C379" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D379" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F379" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H379">
         <v>5</v>
@@ -9723,16 +9963,16 @@
         <v>38</v>
       </c>
       <c r="B380" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C380" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D380" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F380" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H380">
         <v>2</v>
@@ -9746,16 +9986,16 @@
         <v>38</v>
       </c>
       <c r="B381" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C381" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D381" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F381" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H381">
         <v>2</v>
